--- a/data/xlsx/学习时长-数学2024.xlsx
+++ b/data/xlsx/学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,6 +1819,19 @@
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:00-17:00, 17:40-20:10</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2024.xlsx
+++ b/data/xlsx/学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,6 +1832,84 @@
       </c>
       <c r="C103" t="inlineStr"/>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>14:00-15:30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>9:45-11:15, 15:00-15:30</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>14:20-16:50</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 17:30-21:30</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>8:40-11:40, 14:15-17:00, 17:30-21:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 14:00-15:30</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-数学2024.xlsx
+++ b/data/xlsx/学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,7 +1908,24 @@
           <t>9:00-11:30, 14:00-15:30</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>张宇高数强化一刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:30-16:15</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-数学2024.xlsx
+++ b/data/xlsx/学习时长-数学2024.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13:45-15:25</t>
+          <t>13:45-15:25, 15:30-17:00, 17:45-18:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
